--- a/data/BusinessDS.xlsx
+++ b/data/BusinessDS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnaji\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnaji\OneDrive\Desktop\DBScan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6968C2F-5A43-4CF3-BE57-405DCF842D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD5288-AAAA-4EC7-891D-0F52816CAF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CB07059-4F27-41D9-BE8F-A30C99CD394D}"/>
   </bookViews>
@@ -814,10 +814,13 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H241"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
